--- a/099-納品物/000-要件定義/質問事項.xlsx
+++ b/099-納品物/000-要件定義/質問事項.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\099-納品物\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4796CA-D9B0-4F9C-96E6-E524AC5A8ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0286EE37-0716-42A9-B42A-20D192B8D4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="828" windowWidth="21540" windowHeight="12132" xr2:uid="{D3EF8E00-86F4-4977-A60A-1E4252966D0F}"/>
+    <workbookView xWindow="30105" yWindow="735" windowWidth="17250" windowHeight="8865" activeTab="2" xr2:uid="{D3EF8E00-86F4-4977-A60A-1E4252966D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="共通質問" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
   <si>
     <t>Ans</t>
     <phoneticPr fontId="1"/>
@@ -1248,6 +1248,10 @@
     <rPh sb="26" eb="28">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1272,7 +1276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,6 +1289,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1700,7 +1710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1773,9 +1783,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1894,6 +1901,27 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2212,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8FB7E9-4FDD-49E2-B598-83B457200A33}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2235,59 +2263,61 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="54"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="54"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="64" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="54"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="64" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="54"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="64" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="54"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="64" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="54"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="64" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2295,54 +2325,54 @@
       <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="65"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="64"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="64"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="64"/>
     </row>
     <row r="14" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="66"/>
     </row>
     <row r="15" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="65" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2350,8 +2380,8 @@
       <c r="A16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="64" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2359,8 +2389,8 @@
       <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="64" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2368,8 +2398,8 @@
       <c r="A18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="64" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2377,8 +2407,8 @@
       <c r="A19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="64" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2386,8 +2416,8 @@
       <c r="A20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="66" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2398,18 +2428,18 @@
       <c r="B21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="67" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="68" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2417,8 +2447,8 @@
       <c r="A23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="69"/>
     </row>
     <row r="24" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
@@ -2427,7 +2457,7 @@
       <c r="B24" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="70"/>
     </row>
     <row r="25" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
@@ -2436,7 +2466,7 @@
       <c r="B25" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2457,7 +2487,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B12" sqref="B12:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2478,36 +2508,36 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="54"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="54"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2518,7 +2548,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="54"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -2527,7 +2557,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="54"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2536,28 +2566,28 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="54"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="54"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="54"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
@@ -2566,7 +2596,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="51" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2575,14 +2605,14 @@
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="54"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
@@ -2591,42 +2621,42 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="54"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="54"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="54"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="54"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="53"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C20" s="31"/>
+      <c r="C20" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2644,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B964CEE8-79F1-414D-9737-5A303D226F85}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2666,7 +2696,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2675,7 +2705,7 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2684,7 +2714,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="59"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2693,7 +2723,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="59"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="4" t="s">
         <v>48</v>
       </c>
@@ -2702,83 +2732,83 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="59"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="59"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="59"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="59"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="45" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="60"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="44"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="51"/>
     </row>
     <row r="12" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="62"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="47"/>
+      <c r="C13" s="46"/>
     </row>
     <row r="14" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="44" t="s">
         <v>80</v>
       </c>
       <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="51"/>
     </row>
     <row r="16" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2801,7 +2831,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2822,52 +2852,52 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="54"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="54"/>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="47"/>
     </row>
     <row r="5" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="53"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2875,10 +2905,10 @@
       <c r="A8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2918,73 +2948,73 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="64"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="64"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="64"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="64"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="64"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="64"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="62"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:3" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
